--- a/docs/fluxo_de_caixa.xlsx
+++ b/docs/fluxo_de_caixa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Mês</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Abril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maio</t>
   </si>
   <si>
     <t xml:space="preserve">GESTUM</t>
@@ -186,24 +189,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,226 +291,268 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>1118</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>5300</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>4182</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>4182</v>
+      <c r="H2" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <f aca="false">H2-G2</f>
+        <v>-818</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>-818</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>1136</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
+        <f aca="false">H3-G3</f>
         <v>-536</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>3646</v>
+      <c r="J3" s="3" t="n">
+        <f aca="false">I3+J2</f>
+        <v>-1354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="F4" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>1154</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>900</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
+        <f aca="false">H4-G4</f>
         <v>-254</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>3392</v>
+      <c r="J4" s="3" t="n">
+        <f aca="false">I4+J3</f>
+        <v>-1608</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <v>1172</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
+        <f aca="false">H5-G5</f>
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="J5" s="3" t="n">
+        <f aca="false">I5+J4</f>
+        <v>-1580</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <f aca="false">6%*1500</f>
+        <v>90</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1190</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <f aca="false">H6-G6</f>
+        <v>310</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <f aca="false">I6+J5</f>
+        <v>-1270</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="E7:G10"/>
+    <mergeCell ref="A8:C11"/>
+    <mergeCell ref="E8:G11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
